--- a/数据整理/stocks/A股/科创板/688408-中信博.xlsx
+++ b/数据整理/stocks/A股/科创板/688408-中信博.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009415</t>
+          <t>506006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中邮瑞享两年定期开放混合A</t>
+          <t>汇添富科创板2年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32.25</t>
+          <t>33.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5758</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009416</t>
+          <t>506002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮瑞享两年定期开放混合C</t>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>32.25</t>
+          <t>31.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>60.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3037</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001236</t>
+          <t>150103</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时丝路主题股票A</t>
+          <t>银河银泰混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.38</t>
+          <t>15.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7456</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001490</t>
+          <t>310328</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富国企创新增长股票</t>
+          <t>申万菱信新动力混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.79</t>
+          <t>18.77</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5631</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>150103</t>
+          <t>001490</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银河银泰混合</t>
+          <t>汇添富国企创新增长股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>79.44</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4899</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>310328</t>
+          <t>501065</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>申万菱信新动力混合</t>
+          <t>汇添富经典成长定期开放混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>84.14</t>
+          <t>14.25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>73.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3577</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>310368</t>
+          <t>001236</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>申万菱信竞争优势混合</t>
+          <t>博时丝路主题股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>8.19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2703</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501065</t>
+          <t>009415</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富经典成长定期开放混合</t>
+          <t>中邮瑞享两年定期开放混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>73.59</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>32.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>506002</t>
+          <t>008416</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+          <t>鹏扬景瑞三年定期开放混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>60.73</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>506006</t>
+          <t>004687</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇添富科创板2年定期开放混合</t>
+          <t>汇添富熙和精选混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>76.13</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004687</t>
+          <t>310368</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇添富熙和精选混合A</t>
+          <t>申万菱信竞争优势混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>31.91</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -810,15 +930,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>31.91</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>0.81</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>10</v>
       </c>
     </row>
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002556</t>
+          <t>004794</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>博时丝路主题股票C</t>
+          <t>富荣福鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>88.38</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004794</t>
+          <t>002556</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>富荣福鑫灵活配置混合A</t>
+          <t>博时丝路主题股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>88.01</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>004795</t>
+          <t>008417</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>富荣福鑫灵活配置混合C</t>
+          <t>鹏扬景瑞三年定期开放混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>88.01</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008416</t>
+          <t>009416</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鹏扬景瑞三年定期开放混合A</t>
+          <t>中邮瑞享两年定期开放混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>28.33</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>32.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008417</t>
+          <t>004795</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鹏扬景瑞三年定期开放混合C</t>
+          <t>富荣福鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>28.33</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -973,7 +1153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,15 +1174,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001236</t>
+          <t>506006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时丝路主题股票A</t>
+          <t>汇添富科创板2年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.60</t>
+          <t>31.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>78.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4714</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002556</t>
+          <t>506002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时丝路主题股票C</t>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.60</t>
+          <t>27.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1775</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001490</t>
+          <t>310328</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富国企创新增长股票</t>
+          <t>申万菱信新动力混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.19</t>
+          <t>20.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5963</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009740</t>
+          <t>001236</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时研究臻选三年持有期灵活配置混合A</t>
+          <t>博时丝路主题股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>79.29</t>
+          <t>10.10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3535</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009741</t>
+          <t>001490</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时研究臻选三年持有期灵活配置混合C</t>
+          <t>汇添富国企创新增长股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>79.29</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3249</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>310328</t>
+          <t>009740</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>申万菱信新动力混合</t>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>86.07</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2897</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>410006</t>
+          <t>501201</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华富策略精选混合</t>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>71.94</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>96.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1210,25 +1470,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501201</t>
+          <t>002556</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+          <t>博时丝路主题股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>96.08</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>506002</t>
+          <t>009741</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>80.26</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>506006</t>
+          <t>410006</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇添富科创板2年定期开放混合</t>
+          <t>华富策略精选混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>78.78</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>71.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688408-中信博.xlsx
+++ b/数据整理/stocks/A股/科创板/688408-中信博.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1581,4 +1582,782 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2645</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5875</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3369</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0389</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009885</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7446</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6636</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001490</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4413</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519091</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新华泛资源优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2895</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519089</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华优选成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000584</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009886</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新华景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688408-中信博.xlsx
+++ b/数据整理/stocks/A股/科创板/688408-中信博.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2360,4 +2361,1238 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8430</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010439</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富稳健汇盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>183.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6623</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>470098</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富逆向投资混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>45.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0898</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7249</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3614</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2390</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0687</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0363</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7107</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519091</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新华泛资源优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4866</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4820</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001490</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4346</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3423</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009885</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新华景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3371</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2965</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519089</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新华优选成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2662</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2219</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000584</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1874</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1593</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004734</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>55.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009886</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新华景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004735</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005638</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>农银汇理量化智慧动力混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688408-中信博.xlsx
+++ b/数据整理/stocks/A股/科创板/688408-中信博.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3595,4 +3596,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688408-中信博.xlsx
+++ b/数据整理/stocks/A股/科创板/688408-中信博.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3604,7 +3605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3615,17 +3616,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3635,14 +3656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.7</v>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2188</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3651,14 +3694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.32</v>
+          <t>008866</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6275</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3667,14 +3732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.37</v>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6092</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3683,13 +3770,911 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4471</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3965</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1555</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7928</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009885</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新华景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6148</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519091</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华泛资源优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5410</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519089</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新华优选成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4558</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014150</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3461</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000584</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3074</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2918</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2668</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004734</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006973</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>太平睿盈混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009886</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新华景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011801</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银证券盈瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007669</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>太平睿盈混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004573</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新华鑫泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008867</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时产业新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004735</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011802</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银证券盈瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>17</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688408-中信博.xlsx
+++ b/数据整理/stocks/A股/科创板/688408-中信博.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4573,7 +4574,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4584,17 +4585,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4604,14 +4625,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.47</v>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4320</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4620,14 +4663,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.7</v>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6315</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -4636,14 +4701,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.32</v>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6315</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4652,14 +4739,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4342</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.37</v>
       </c>
     </row>
     <row r="6">
@@ -4668,13 +4777,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>17</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688408-中信博.xlsx
+++ b/数据整理/stocks/A股/科创板/688408-中信博.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4896,7 +4897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4907,17 +4908,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4927,14 +4948,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.31</v>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7905</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4943,14 +4986,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.47</v>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2221</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4959,14 +5024,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.7</v>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8106</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -4975,14 +5062,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.32</v>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3933</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -4991,14 +5100,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.37</v>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3655</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -5007,13 +5138,943 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>014729</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2838</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>900013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008640</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008641</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003300</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东海证券海睿致远灵活配置混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001448</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商双翼平衡混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>40.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>970050</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东海海睿锐意3个月定开灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>900133</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015068</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>17</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>5.51</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688408-中信博.xlsx
+++ b/数据整理/stocks/A股/科创板/688408-中信博.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>7.45</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>4.31</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>15.47</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>18.7</v>
+        <v>15.47</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
-        <v>9.32</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>4.37</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>17</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>5.51</v>
       </c>
     </row>
@@ -600,6 +617,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0378</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0266</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5852</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5691</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2233</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城双动力混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015561</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城双动力混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008640</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008641</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002220</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方瑞利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005953</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>970050</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东海海睿锐意3个月定开灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>673040</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>673043</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007533</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>格林创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007534</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>格林创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012415</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>德邦上证G60综指增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005954</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>人保转型新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012416</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>德邦上证G60综指增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1643,7 +2818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1965,7 +3140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2933,7 +4108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4167,7 +5342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4945,7 +6120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5381,7 +6556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688408-中信博.xlsx
+++ b/数据整理/stocks/A股/科创板/688408-中信博.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>7.07</v>
+        <v>11.19</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>7.45</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>4.31</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>15.47</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>18.7</v>
+        <v>15.47</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>9.32</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>4.37</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>17</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>5.51</v>
       </c>
     </row>
@@ -616,7 +633,2209 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5758</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>60.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3037</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河银泰混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7456</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5631</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001490</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4899</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501065</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富经典成长定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3577</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2703</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009415</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>32.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004687</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富熙和精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004688</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富熙和精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009416</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>32.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4384</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7644</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003835</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华沪深港新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>45.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1668</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9741</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5029</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4921</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013157</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4278</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012975</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3720</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012976</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>65.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008640</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>016283</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008641</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>方正富邦科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>970050</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东海海睿锐意3个月定开灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>970046</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>65.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>970047</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012919</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012415</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>德邦上证 G60 创新综合指数增强A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>016386</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>永赢低碳环保智选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012416</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>德邦上证 G60 创新综合指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>016387</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>永赢低碳环保智选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1774,7 +3993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2818,7 +5037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3140,7 +5359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4108,7 +6327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5342,7 +7561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6120,7 +8339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6554,706 +8773,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>506006</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富科创板2年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>33.60</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>76.13</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.5758</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>506002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达科创板两年定期开放混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>31.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>60.73</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.3037</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>150103</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银河银泰混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15.83</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>79.44</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7456</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>310328</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>申万菱信新动力混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>18.77</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.14</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5631</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001490</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富国企创新增长股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.52</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.79</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4899</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>501065</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富经典成长定期开放混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>14.25</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>73.59</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3577</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001236</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时丝路主题股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.38</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2703</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009415</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中邮瑞享两年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>32.25</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0479</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008416</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏扬景瑞三年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>28.33</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0405</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004687</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇添富熙和精选混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>31.91</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0361</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>310368</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>申万菱信竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0205</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004688</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇添富熙和精选混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>31.91</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004794</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>富荣福鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>88.01</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0177</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002556</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博时丝路主题股票C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88.38</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008417</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鹏扬景瑞三年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>28.33</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009416</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中邮瑞享两年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>32.25</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004795</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>富荣福鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>88.01</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>